--- a/results/gurobi_cplex_comparison/seed_50_k_20.xlsx
+++ b/results/gurobi_cplex_comparison/seed_50_k_20.xlsx
@@ -429,10 +429,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.022</v>
+        <v>0.594</v>
       </c>
       <c r="F2">
-        <v>0.034</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -449,10 +449,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.056</v>
+        <v>0.888</v>
       </c>
       <c r="F3">
-        <v>0.042</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -469,10 +469,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01</v>
+        <v>1.112</v>
       </c>
       <c r="F4">
-        <v>0.026</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.014</v>
+        <v>1.405</v>
       </c>
       <c r="F5">
-        <v>0.052</v>
+        <v>0.383</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -509,10 +509,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.033</v>
+        <v>1.793</v>
       </c>
       <c r="F6">
-        <v>0.043</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.105</v>
+        <v>2.285</v>
       </c>
       <c r="F7">
-        <v>0.215</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.021</v>
+        <v>2.677</v>
       </c>
       <c r="F8">
-        <v>0.049</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.057</v>
+        <v>3.183</v>
       </c>
       <c r="F9">
-        <v>0.097</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.039</v>
+        <v>3.709</v>
       </c>
       <c r="F10">
-        <v>0.055</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.028</v>
+        <v>4.353</v>
       </c>
       <c r="F11">
-        <v>0.049</v>
+        <v>0.921</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.167</v>
+        <v>5.067</v>
       </c>
       <c r="F12">
-        <v>98.63500000000001</v>
+        <v>108.285</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.036</v>
+        <v>5.641</v>
       </c>
       <c r="F13">
-        <v>0.08</v>
+        <v>1.269</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.08699999999999999</v>
+        <v>6.397</v>
       </c>
       <c r="F14">
-        <v>85.914</v>
+        <v>94.184</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.048</v>
+        <v>7.104</v>
       </c>
       <c r="F15">
-        <v>0.065</v>
+        <v>1.506</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.074</v>
+        <v>7.95</v>
       </c>
       <c r="F16">
-        <v>62.909</v>
+        <v>85.64</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -729,10 +729,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.362</v>
+        <v>9.164</v>
       </c>
       <c r="F17">
-        <v>36.639</v>
+        <v>37.96</v>
       </c>
     </row>
   </sheetData>
